--- a/DOM_Banner/output/dept_banner/Bhupinder Natt_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Bhupinder Natt_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,711 +360,328 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Janet Lee, Eric A. White, Elizabeth Freiheit, Mary Beth Scholand, Mary E. Strek, Anna J. Podolanczuk, Nina Patel, Rebecca Bascom, Elizabeth A. Belloli, Nitin Bhatt, Sangeeta Bhorade, Amy Hajari Case, Richard J. Castriotta, Gerard J. Criner, Sonye K. Danoff, Joao de Andrade, Alpa Desai, Marilyn K. Glassberg, Craig S. Glazer, Mridu Gulati, Nishant Gupta, Mark J. Hamblin, Tristan J. Huie, Robert J. Kaner, Daniel J. Kass, Hyun Kim, Maryl Kreider, Lisa Lancaster, Joseph A. Lasky, Andrew H. Limper, Sydney B. Montesi, Joshua J. Mooney, Lake Morrison, Anoop M. Nambiar, Steven D. Nathan, Bhupinder Natt, T Paul, Rafael L. Perez, Anna J. Podolanczuk, Ganesh Raghu, Mary Beth Scholand, Adrián Shifren, Mary E. Strek, Nevins W. Todd, Rajat Walia, Stephen Weight, Timothy Whelan, Paul J. Wolters</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220936620</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Cough-Specific Quality of Life Predicts Disease Progression Among Patients With Interstitial Lung Disease</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5079729144", "https://openalex.org/A5051238988", "https://openalex.org/A5041689593", "https://openalex.org/A5021098628", "https://openalex.org/A5069296013", "https://openalex.org/A5034235247", "https://openalex.org/A5001926822", "https://openalex.org/A5033586503", "https://openalex.org/A5059270952", "https://openalex.org/A5029238128", "https://openalex.org/A5009693473", "https://openalex.org/A5038327765", "https://openalex.org/A5023887337", "https://openalex.org/A5009003396", 
-"https://openalex.org/A5074409521", "https://openalex.org/A5024658352", "https://openalex.org/A5071175794", "https://openalex.org/A5087322552", "https://openalex.org/A5015537103", "https://openalex.org/A5087611455", "https://openalex.org/A5055481509", "https://openalex.org/A5062597904", "https://openalex.org/A5050344143", "https://openalex.org/A5052471232", "https://openalex.org/A5058102145", "https://openalex.org/A5033091196", "https://openalex.org/A5029023720", "https://openalex.org/A5030667668", 
-"https://openalex.org/A5086357675", "https://openalex.org/A5053804590", "https://openalex.org/A5064815115", "https://openalex.org/A5090684217", "https://openalex.org/A5045765914", "https://openalex.org/A5061287912", "https://openalex.org/A5052485494", "https://openalex.org/A5090480697", "https://openalex.org/A5025496195", "https://openalex.org/A5039255811", "https://openalex.org/A5034235247", "https://openalex.org/A5021656163", "https://openalex.org/A5021098628", "https://openalex.org/A5055806663", 
-"https://openalex.org/A5069296013", "https://openalex.org/A5027033124", "https://openalex.org/A5044792601", "https://openalex.org/A5040364030", "https://openalex.org/A5013280910", "https://openalex.org/A5035567835"), au_display_name = c("Janet Lee", "Eric A. White", "Elizabeth Freiheit", "Mary Beth Scholand", "Mary E. Strek", "Anna J. Podolanczuk", "Nina Patel", "Rebecca Bascom", "Elizabeth A. Belloli", "Nitin Bhatt", "Sangeeta Bhorade", "Amy Hajari Case", "Richard J. Castriotta", "Gerard J. Criner", 
-"Sonye K. Danoff", "Joao de Andrade", "Alpa Desai", "Marilyn K. Glassberg", "Craig S. Glazer", "Mridu Gulati", "Nishant Gupta", "Mark J. Hamblin", "Tristan J. Huie", "Robert J. Kaner", "Daniel J. Kass", "Hyun Kim", "Maryl Kreider", "Lisa Lancaster", "Joseph A. Lasky", "Andrew H. Limper", "Sydney B. Montesi", "Joshua J. Mooney", "Lake Morrison", "Anoop M. Nambiar", "Steven D. Nathan", "Bhupinder Natt", "T Paul", "Rafael L. Perez", "Anna J. Podolanczuk", "Ganesh Raghu", "Mary Beth Scholand", "Adrián Shifren", 
-"Mary E. Strek", "Nevins W. Todd", "Rajat Walia", "Stephen Weight", "Timothy Whelan", "Paul J. Wolters"), au_orcid = c("https://orcid.org/0000-0002-6812-6043", "https://orcid.org/0000-0002-8177-0829", NA, "https://orcid.org/0000-0001-6513-8893", "https://orcid.org/0000-0002-7671-1023", "https://orcid.org/0000-0002-9559-1485", NA, "https://orcid.org/0000-0001-5875-3476", NA, NA, "https://orcid.org/0000-0002-8396-6884", "https://orcid.org/0000-0001-8663-2022", "https://orcid.org/0000-0003-3502-4558", 
-"https://orcid.org/0000-0003-1267-3483", NA, NA, "https://orcid.org/0000-0001-8730-9091", "https://orcid.org/0000-0003-1990-6614", NA, NA, "https://orcid.org/0000-0001-9112-1315", NA, "https://orcid.org/0000-0003-0390-1253", "https://orcid.org/0000-0003-0527-576X", "https://orcid.org/0000-0001-6597-7830", "https://orcid.org/0000-0002-7373-1643", NA, "https://orcid.org/0000-0001-8465-7357", NA, "https://orcid.org/0000-0001-5671-6874", "https://orcid.org/0000-0002-5724-6808", "https://orcid.org/0000-0002-4687-194X", 
-"https://orcid.org/0000-0002-5658-0927", "https://orcid.org/0000-0003-2778-0433", "https://orcid.org/0000-0002-6270-1617", "https://orcid.org/0000-0002-3871-0513", NA, NA, "https://orcid.org/0000-0002-9559-1485", "https://orcid.org/0000-0001-7506-6643", "https://orcid.org/0000-0001-6513-8893", NA, "https://orcid.org/0000-0002-7671-1023", NA, "https://orcid.org/0000-0001-5036-2921", NA, NA, "https://orcid.org/0000-0002-3108-6164"), author_position = c("first", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", 
-"", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
-NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
-NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cough is a common symptom of interstitial lung disease (ILD) and negatively impacts health-related quality of life (QOL). Previous studies have shown that among patients with idiopathic pulmonary fibrosis, cough may predict progression of lung disease and perhaps even respiratory hospitalizations and mortality.Does cough-specific QOL predict disease progression, respiratory hospitalization, lung transplantation, and death among patients with ILD?We analyzed data from the Pulmonary Fibrosis Foundation Registry, which comprises a multicenter population of well-characterized patients with ILD. We first examined associations between patient factors and baseline scores on the Leicester Cough Questionnaire (LCQ), a cough-specific QOL tool, using a proportional odds model. Next, we examined associations between baseline LCQ scores and patient-centered clinical outcomes, as well as pulmonary function parameters, using a univariable and multivariable proportional hazards model that was adjusted for clinically relevant variables, including measures of disease severity.One thousand four hundred forty-seven patients with ILD were included in our study. In the multivariable proportional odds model, we found that the following patient factors were associated with worse cough-specific QOL: younger age, diagnosis of "other ILD," gastroesophageal reflux disease, and lower FVC % predicted. Multivariable Cox regression models, adjusting for several variables including baseline disease severity, showed that a 1-point decrease in LCQ score (indicating lower cough-specific QOL) was associated with a 6.5% higher risk of respiratory-related hospitalization (hazard ratio [HR], 1.065; 95% CI, 1.025-1.107), a 7.4% higher risk of death (HR, 1.074; 95% CI, 1.020-1.130), and an 8.7% higher risk of lung transplantation (HR, 1.087; 95% CI, 1.022-1.156).Among a large population of well-characterized patients with ILD, cough-specific QOL was associated independently with respiratory hospitalization, death, and lung transplantation.</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S76900504</t>
+          <t>https://doi.org/10.1016/j.chest.2022.03.025</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0012-3692</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35337809</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.chest.2022.03.025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>603</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9808640</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320307427", funder_display_name = "Pulmonary Fibrosis Foundation", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "K23HL140199")</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4220936620</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4220936620", doi = "https://doi.org/10.1016/j.chest.2022.03.025", pmid = "https://pubmed.ncbi.nlm.nih.gov/35337809")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2022.03.025</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W164914799", "https://openalex.org/W1580486037", "https://openalex.org/W1781015672", "https://openalex.org/W1938547050", "https://openalex.org/W2024162066", "https://openalex.org/W2044098836", "https://openalex.org/W2051083934", "https://openalex.org/W2061451815", "https://openalex.org/W2080677332", "https://openalex.org/W2086003256", "https://openalex.org/W2092052931", "https://openalex.org/W2106261552", "https://openalex.org/W2108678383", "https://openalex.org/W2114242035", 
-"https://openalex.org/W2114988140", "https://openalex.org/W2116018397", "https://openalex.org/W2129514617", "https://openalex.org/W2138871107", "https://openalex.org/W2140374265", "https://openalex.org/W2143363952", "https://openalex.org/W2144675748", "https://openalex.org/W2146824017", "https://openalex.org/W2155800364", "https://openalex.org/W2164981395", "https://openalex.org/W2165661061", "https://openalex.org/W2172045345", "https://openalex.org/W2254210915", "https://openalex.org/W2314545164", 
-"https://openalex.org/W2512400480", "https://openalex.org/W2561237922", "https://openalex.org/W2573619794", "https://openalex.org/W2586906003", "https://openalex.org/W2591396264", "https://openalex.org/W2619345447", "https://openalex.org/W2626456716", "https://openalex.org/W2765891108", "https://openalex.org/W2787279971", "https://openalex.org/W2884014548", "https://openalex.org/W2942605544", "https://openalex.org/W2995348461", "https://openalex.org/W3006290889", "https://openalex.org/W3008172462", 
-"https://openalex.org/W3048660274", "https://openalex.org/W3048732613")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4367606959", "https://openalex.org/W2883658117", "https://openalex.org/W3190722030", "https://openalex.org/W3013488093", "https://openalex.org/W4327934586", "https://openalex.org/W2164091211", "https://openalex.org/W1779884118", "https://openalex.org/W4378227354", "https://openalex.org/W2796182307", "https://openalex.org/W4310329733")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Joshua Malo, Bhupinder Natt, Sachin Chaudhary, Kenneth S. Knox</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293475271</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Prophylaxis in Lung Transplant Recipients</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5011892177", "https://openalex.org/A5090480697", "https://openalex.org/A5079086397", "https://openalex.org/A5036878633"), au_display_name = c("Joshua Malo", "Bhupinder Natt", "Sachin Chaudhary", "Kenneth S. Knox"), au_orcid = c("https://orcid.org/0000-0003-0644-7754", "https://orcid.org/0000-0002-3871-0513", "https://orcid.org/0000-0003-1169-2332", NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA", 
-"Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA", "Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA", "Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", 
-"University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>To theEditor—We read the article by Truong and colleagues with great interest [1]. Our lung transplant program in Arizona has also adopted a universal lifelong fungal prophylaxis protocol with similarly excellent results in reducing incident coccidioidomycosis among lung transplant recipients. Despite the excellent tolerance reported by Truong et al, challenges may arise for patients who need to stop prophylaxis due to side effects or financial concerns or for patients who leave the endemic area and wish to discontinue prophylaxis. Moreover, many patients who receive transplants at centers elsewhere and relocate to regions endemic for coccidioidomycosis will not be on a fungal prophylaxis regimen as recommendations regarding prophylaxis vary based on local epidemiology and time post-transplant [2, 3]. Current American Society of Transplantation guidelines recommend 6–12 months of Coccidioides prophylaxis for recipients living in endemic regions. Risk stratification for these patient populations may be helpful in determining the safety of withholding prophylaxis. Unfortunately, current commonly used diagnostic testing (Coccidioides serology) is not sensitive for remote infection [4, 5], which may reactivate and disseminate in the setting of immunosuppression. Skin testing is an attractive alternative but is cumbersome, insensitive, and infrequently used [6].</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>Clinical Infectious Diseases</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Clinical Infectious Diseases</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S72350973</t>
+          <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1058-4838</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36037080</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>368</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>369</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320318431", funder_display_name = "Veracyte")</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4293475271</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4293475271", doi = "https://doi.org/10.1093/cid/ciac706", pmid = "https://pubmed.ncbi.nlm.nih.gov/36037080")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/cid/ciac706</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2016227754", "https://openalex.org/W2278074394", "https://openalex.org/W2886919985", "https://openalex.org/W2913091535", "https://openalex.org/W2933443562", "https://openalex.org/W2979259595", "https://openalex.org/W3197817639")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2333066761", "https://openalex.org/W4287091864", "https://openalex.org/W2102458507", "https://openalex.org/W1534330724", "https://openalex.org/W2423011516", "https://openalex.org/W1515306984", "https://openalex.org/W3159729891", "https://openalex.org/W2020360709", "https://openalex.org/W1023771799", "https://openalex.org/W2074183598")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Toshinobu Kazui, Chiu-Hsieh Hsu, Scott D. Lick, Cameron Hypes, Bhupinder Natt, Joshua Malo, Jarrod Mosier, David A. Bull</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308369512</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Outcomes of Venovenous Extracorporeal Membrane Oxygenation in Viral Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5055642859", "https://openalex.org/A5045549910", "https://openalex.org/A5026500254", "https://openalex.org/A5003200249", "https://openalex.org/A5090480697", "https://openalex.org/A5011892177", "https://openalex.org/A5002885008", "https://openalex.org/A5066707578"), au_display_name = c("Toshinobu Kazui", "Chiu-Hsieh Hsu", "Scott D. Lick", "Cameron Hypes", "Bhupinder Natt", "Joshua Malo", "Jarrod Mosier", "David A. Bull"), au_orcid = c("https://orcid.org/0000-0003-1501-9639", 
-NA, NA, NA, "https://orcid.org/0000-0002-3871-0513", "https://orcid.org/0000-0003-0644-7754", "https://orcid.org/0000-0002-5371-0845", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona", "Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, The University of Arizona, Tucson, Arizona", 
-"Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona", "", "Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona", "Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona", "Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona", 
-"Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", NA, "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", NA, "University of Arizona", 
-"University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", NA, "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", NA, "US", "US", "US", "US"), institution_type = c("education", "education", "education", NA, "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Our study assessed the relationship between the duration of venovenous extracorporeal membrane oxygenation (V-V ECMO) and patient outcomes. We studied patients undergoing V-V ECMO support for acute respiratory distress syndrome (ARDS) between 2009 and 2017 who were reported to the Extracorporeal Life Support Organization registry. We evaluated survival, major bleeding, renal failure, pulmonary complications, mechanical complications, neurologic complications, infection, and duration of V-V ECMO support. Multivariable regression modeling assessed risk factors for adverse events. Of the 4,636 patients studied, the mean support duration was 12.2 ± 13.7 days. There was a progressive increase in survival after the initiation of V-VECMO, peaking at a survival rate of 73% at 10 days of support. However, a single-day increase in V-V ECMO duration was associated with increased bleeding events (odds ratio [OR] 1.038; 95% confidence interval [CI]: 1.029-1.047; p &lt; 0.0001), renal failure (OR 1.018; 95% CI: 1.010-1.027; p &lt; 0.0001), mechanical complications (OR 1.065; 95% CI: 1.053-1.076; p &lt; 0.0001), pulmonary complications (OR 1.04; 95% CI: 1.03-1.05; p &lt; 0.0001), and infection (OR 1.04; 95% CI: 1.03-1.05; p &lt; 0.0001). V-V ECMO progressively increases survival for ARDS over the first 10 days of support. Thereafter, rising complications associated with prolonged durations of support result in a progressive decline in survival.</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S8999885</t>
+          <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1058-2916</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36326705</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1399</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1406</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/mat.0000000000001671</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4308369512</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4308369512", doi = "https://doi.org/10.1097/mat.0000000000001671", pmid = "https://pubmed.ncbi.nlm.nih.gov/36326705")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/mat.0000000000001671</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1136341999", "https://openalex.org/W2000255389", "https://openalex.org/W2010462000", "https://openalex.org/W2020284110", "https://openalex.org/W2024874170", "https://openalex.org/W2048608755", "https://openalex.org/W2066707366", "https://openalex.org/W2086538506", "https://openalex.org/W2105123265", "https://openalex.org/W2133178399", "https://openalex.org/W2146659446", "https://openalex.org/W2165852759", "https://openalex.org/W2290906408", "https://openalex.org/W2346200290", 
-"https://openalex.org/W2563391002", "https://openalex.org/W2771310921", "https://openalex.org/W2794237902", "https://openalex.org/W2889765257", "https://openalex.org/W2973414232", "https://openalex.org/W3012535209", "https://openalex.org/W3089328061")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2318022453", "https://openalex.org/W2832513753", "https://openalex.org/W3109505888", "https://openalex.org/W2493937886", "https://openalex.org/W3114486991", "https://openalex.org/W103021685", "https://openalex.org/W2024271466", "https://openalex.org/W3032464864", "https://openalex.org/W161659851", "https://openalex.org/W2219169088")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Bhupinder Natt_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Bhupinder Natt_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Section of Pulmonary and Critical Care Medicine, University of Utah, Salt Lake City, UT; Department of Biostatistics, School of Public Health, University of Michigan, Ann Arbor, MI; Department of Biostatistics, School of Public Health, University of Michigan, Ann Arbor, MI; Section of Pulmonary and Critical Care Medicine, University of Utah, Salt Lake City, UT; Section of Pulmonary and Critical Care Medicine, University of Chicago, Chicago, IL; Division of Pulmonary and Critical Care Medicine, Weill Cornell Medical Center, New York, NY; Boehringer-Inghelheim, Ridgefield, CT; Division of Pulmonary, Allergy and Critical Care Medicine, Columbia University Medical Center, New York, NY; ; Department of Biostatistics, School of Public Health, University of Michigan, Ann Arbor, MI; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Division of Pulmonary and Critical Care Medicine, Weill Cornell Medical Center, New York, NY; ; Section of Pulmonary and Critical Care Medicine, University of Utah, Salt Lake City, UT; ; Section of Pulmonary and Critical Care Medicine, University of Chicago, Chicago, IL; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220936620</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Cough-Specific Quality of Life Predicts Disease Progression Among Patients With Interstitial Lung Disease</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2022.03.025</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35337809</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2022.03.025</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293475271</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Prophylaxis in Lung Transplant Recipients</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36037080</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, The University of Arizona, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; ; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308369512</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Outcomes of Venovenous Extracorporeal Membrane Oxygenation in Viral Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36326705</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
